--- a/VarexJSmallScaleEvaluation/src/phil/resultPhil.xlsx
+++ b/VarexJSmallScaleEvaluation/src/phil/resultPhil.xlsx
@@ -738,8 +738,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121487360"/>
-        <c:axId val="82748544"/>
+        <c:axId val="128106496"/>
+        <c:axId val="87204992"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -794,11 +794,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121488384"/>
-        <c:axId val="82749120"/>
+        <c:axId val="128107520"/>
+        <c:axId val="87205568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121487360"/>
+        <c:axId val="128106496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -807,7 +807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82748544"/>
+        <c:crossAx val="87204992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -815,7 +815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82748544"/>
+        <c:axId val="87204992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -826,12 +826,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121487360"/>
+        <c:crossAx val="128106496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82749120"/>
+        <c:axId val="87205568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,12 +841,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121488384"/>
+        <c:crossAx val="128107520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="121488384"/>
+        <c:axId val="128107520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82749120"/>
+        <c:crossAx val="87205568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -949,8 +949,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121489408"/>
-        <c:axId val="82750848"/>
+        <c:axId val="128108544"/>
+        <c:axId val="87207296"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1005,11 +1005,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122130432"/>
-        <c:axId val="82751424"/>
+        <c:axId val="128819200"/>
+        <c:axId val="87207872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121489408"/>
+        <c:axId val="128108544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,7 +1018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82750848"/>
+        <c:crossAx val="87207296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1026,7 +1026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82750848"/>
+        <c:axId val="87207296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,12 +1037,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121489408"/>
+        <c:crossAx val="128108544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82751424"/>
+        <c:axId val="87207872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,12 +1052,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122130432"/>
+        <c:crossAx val="128819200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="122130432"/>
+        <c:axId val="128819200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +1066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82751424"/>
+        <c:crossAx val="87207872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1076,7 +1076,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1173,8 +1172,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122131968"/>
-        <c:axId val="82753152"/>
+        <c:axId val="128820736"/>
+        <c:axId val="87209600"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1241,11 +1240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122132992"/>
-        <c:axId val="82753728"/>
+        <c:axId val="128821760"/>
+        <c:axId val="87210176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122131968"/>
+        <c:axId val="128820736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1253,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82753152"/>
+        <c:crossAx val="87209600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1262,7 +1261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82753152"/>
+        <c:axId val="87209600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,12 +1272,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122131968"/>
+        <c:crossAx val="128820736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82753728"/>
+        <c:axId val="87210176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,12 +1287,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122132992"/>
+        <c:crossAx val="128821760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="122132992"/>
+        <c:axId val="128821760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82753728"/>
+        <c:crossAx val="87210176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1312,7 +1311,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1486,11 +1484,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121490432"/>
-        <c:axId val="122322944"/>
+        <c:axId val="128737792"/>
+        <c:axId val="128942080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121490432"/>
+        <c:axId val="128737792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1497,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122322944"/>
+        <c:crossAx val="128942080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122322944"/>
+        <c:axId val="128942080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121490432"/>
+        <c:crossAx val="128737792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1555,7 +1553,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24350262467191602"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.73484361329833769"/>
+          <c:h val="0.78942859581767655"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1698,20 +1706,46 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122185216"/>
-        <c:axId val="122325248"/>
+        <c:axId val="128738816"/>
+        <c:axId val="128944384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122185216"/>
+        <c:axId val="128738816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Philosophers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48732634795156687"/>
+              <c:y val="0.92743425010619218"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122325248"/>
+        <c:crossAx val="128944384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1719,30 +1753,63 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122325248"/>
+        <c:axId val="128944384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122185216"/>
+        <c:crossAx val="128738816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43112401574803155"/>
+          <c:y val="7.8127734033245855E-2"/>
+          <c:w val="0.2966537620297463"/>
+          <c:h val="0.25115157480314959"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1913,11 +1980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85375488"/>
-        <c:axId val="122327552"/>
+        <c:axId val="89897472"/>
+        <c:axId val="128946688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85375488"/>
+        <c:axId val="89897472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,7 +1993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122327552"/>
+        <c:crossAx val="128946688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1934,7 +2001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122327552"/>
+        <c:axId val="128946688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +2011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85375488"/>
+        <c:crossAx val="89897472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2107,16 +2174,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>129989</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>728382</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>186018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>15689</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10193,8 +10260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J694"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
